--- a/output/fit_clients/fit_round_384.xlsx
+++ b/output/fit_clients/fit_round_384.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2037482584.057113</v>
+        <v>1660076254.392382</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09001761656720683</v>
+        <v>0.09422166948108587</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04011382601001152</v>
+        <v>0.02792725267879894</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1018741292.69422</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2629222334.705578</v>
+        <v>2648360731.339887</v>
       </c>
       <c r="F3" t="n">
-        <v>0.179086753735591</v>
+        <v>0.1124973266101578</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03118140143839697</v>
+        <v>0.03080442292382609</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1314611304.869357</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3330378839.79491</v>
+        <v>4530082844.464531</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1038983804661242</v>
+        <v>0.1139254389437944</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0318082017877731</v>
+        <v>0.03336372877843224</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>138</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1665189386.643064</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2753971452.978769</v>
+        <v>3240585135.963438</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07358106015114051</v>
+        <v>0.09366935750175054</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05101132834472989</v>
+        <v>0.04153842849752656</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>142</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1376985812.604069</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2285282786.343025</v>
+        <v>1815870666.637749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09202263593290474</v>
+        <v>0.1019590133929404</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04586192503185835</v>
+        <v>0.03547479084652913</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1142641391.903924</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3039768758.509709</v>
+        <v>1973872034.267608</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07222586685714998</v>
+        <v>0.1007216481011297</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03533182095513197</v>
+        <v>0.0484247076219643</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1519884340.303485</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3978959298.652696</v>
+        <v>3587547179.057831</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2163073475841361</v>
+        <v>0.1431682240636938</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03034353929787108</v>
+        <v>0.02088650857667474</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1989479806.932463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1865937712.439394</v>
+        <v>1681617028.687541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1678742294404739</v>
+        <v>0.1617098770293352</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02608389874814614</v>
+        <v>0.03219378770849314</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>932968901.4460862</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5249922923.228856</v>
+        <v>5394253231.144722</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1847463847141805</v>
+        <v>0.2131026344725671</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04503158730809337</v>
+        <v>0.03629095727466303</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>161</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2624961580.291605</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3033700983.561284</v>
+        <v>3828327407.080173</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1792808073099599</v>
+        <v>0.1385327626627326</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03218373091359469</v>
+        <v>0.04524340421048729</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>158</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1516850437.090333</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2322972292.889415</v>
+        <v>2840976157.436677</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1869042774639864</v>
+        <v>0.1498618162962791</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04893250008459846</v>
+        <v>0.04658858675011898</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1161486102.454599</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4416690883.055451</v>
+        <v>4902743862.624672</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1001714374560239</v>
+        <v>0.0969832322261381</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02680474639718957</v>
+        <v>0.02442447869762442</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>128</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2208345475.306424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3786078796.740544</v>
+        <v>2515305056.468668</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1194309610290458</v>
+        <v>0.1222930454276339</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03623406229245895</v>
+        <v>0.04050952615893218</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1893039375.898407</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1791867176.70521</v>
+        <v>1120788383.770168</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07960066912137236</v>
+        <v>0.08600972750426067</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03168810994966725</v>
+        <v>0.04652935092305395</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>895933740.0376056</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2807014901.125648</v>
+        <v>2422496395.384777</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08132993739691007</v>
+        <v>0.09176962111629561</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03420986584353087</v>
+        <v>0.04184314405837682</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>77</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1403507453.965889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4282113937.858763</v>
+        <v>4241597447.108848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1217710102631525</v>
+        <v>0.1527977312515404</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04872852008477444</v>
+        <v>0.05179195625486301</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>112</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2141056989.616088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3543304635.145976</v>
+        <v>3970267430.335087</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1680466355971131</v>
+        <v>0.1507322509366453</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02758913897009869</v>
+        <v>0.03147158784304477</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>125</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1771652308.466474</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>853038121.1220908</v>
+        <v>1363003187.723575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1723493901145335</v>
+        <v>0.1620611416177307</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02241195558922253</v>
+        <v>0.02210610025492979</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>426519054.0465363</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2200514501.40594</v>
+        <v>2455804068.82167</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1004194863524882</v>
+        <v>0.150371047204353</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02773739793613703</v>
+        <v>0.02429709073379425</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1100257255.715065</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2123514257.674042</v>
+        <v>2556999571.399889</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0672244817328907</v>
+        <v>0.07568453391833085</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03816766915852655</v>
+        <v>0.0387916194799776</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1061757152.986992</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2647024780.355328</v>
+        <v>3948169357.996321</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1185046725251327</v>
+        <v>0.1188467412321399</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03769563004279004</v>
+        <v>0.05519744551310714</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1323512472.854249</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1196560018.563511</v>
+        <v>1007490772.806195</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1768329850500881</v>
+        <v>0.1610608946431963</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03365599792185772</v>
+        <v>0.0355589353168527</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>598280046.3609862</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2944907380.875654</v>
+        <v>4084020432.449387</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1299270520394619</v>
+        <v>0.1179905193253475</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02397238310966961</v>
+        <v>0.03077758701407278</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>112</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1472453729.399261</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1438900528.301367</v>
+        <v>1230356791.303906</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1118362593175921</v>
+        <v>0.1122685086759764</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02125109541153278</v>
+        <v>0.02575248401339573</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>719450227.1642851</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>916922077.3550029</v>
+        <v>999819353.5771309</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1177419519601373</v>
+        <v>0.1054842583641805</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02530132209066832</v>
+        <v>0.03392670426658945</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>458460990.4149685</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4134858540.874334</v>
+        <v>3934194106.278095</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1490815466376536</v>
+        <v>0.1384508828936684</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01840327341292212</v>
+        <v>0.016749148911753</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>90</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2067429273.902719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3678446446.702418</v>
+        <v>3146070319.252674</v>
       </c>
       <c r="F28" t="n">
-        <v>0.136133536707846</v>
+        <v>0.1316448112134785</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03957092451841984</v>
+        <v>0.0412599254659774</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>123</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1839223293.485472</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3784366031.93209</v>
+        <v>4381331243.019478</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1102678494499887</v>
+        <v>0.1275773248002441</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04254271156821546</v>
+        <v>0.03735642973130277</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>169</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1892183047.734066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2166251675.420256</v>
+        <v>1767861176.520993</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1387931395496891</v>
+        <v>0.117857141364717</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03165042629599627</v>
+        <v>0.0315027267030656</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1083125894.117362</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1118336511.158736</v>
+        <v>1192188575.779652</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07086460726440522</v>
+        <v>0.07600228620281925</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03726456008517385</v>
+        <v>0.04313100417384001</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>559168226.2837399</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1538616569.273574</v>
+        <v>1632256818.95548</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1074209020065249</v>
+        <v>0.1118949114116247</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03530808897823332</v>
+        <v>0.03023055791612722</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>769308360.9961919</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2802828687.097844</v>
+        <v>2599872773.540617</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1702835190787547</v>
+        <v>0.1712045304527012</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05079690584931477</v>
+        <v>0.06091032399570966</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>115</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1401414355.98209</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1509354037.391387</v>
+        <v>1410279654.685117</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08614688676312428</v>
+        <v>0.09389853416250074</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01926975656384201</v>
+        <v>0.02710013056320349</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>754676973.0143304</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>874561552.9200701</v>
+        <v>999447217.6730862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.113957253843409</v>
+        <v>0.1177497672108571</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03382936828392203</v>
+        <v>0.02747293698813161</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>437280822.5702635</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3122058640.731185</v>
+        <v>2216743751.693988</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1404880769970752</v>
+        <v>0.1429065509941111</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02508327079169004</v>
+        <v>0.01771073319583145</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1561029292.523699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2287718166.167188</v>
+        <v>1778791365.15345</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09194193673512242</v>
+        <v>0.0793143203071856</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03690619153416357</v>
+        <v>0.02733798476774918</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1143859149.948215</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1749585936.1665</v>
+        <v>1410627826.928224</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1203288484191949</v>
+        <v>0.0739085702472079</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03353552843278128</v>
+        <v>0.03244330729817339</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>874792982.091399</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1564211964.289817</v>
+        <v>1862778904.820286</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1682430844772989</v>
+        <v>0.1423027693066663</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0259037418330031</v>
+        <v>0.02917323040920941</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>782106042.8773361</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1445052312.752903</v>
+        <v>1756157189.911656</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1364164744469228</v>
+        <v>0.1386839874793337</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0514779537799895</v>
+        <v>0.04720796336954042</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>722526136.3384708</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2755438614.795575</v>
+        <v>2495479318.247477</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1136762953388287</v>
+        <v>0.1007859363052571</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04660601566125841</v>
+        <v>0.03176689985821377</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>98</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1377719307.651377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2715962671.313769</v>
+        <v>4231840340.532861</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07924973386529166</v>
+        <v>0.09963283910881437</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02909434946155138</v>
+        <v>0.03311220230405232</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1357981276.561252</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2259565682.051599</v>
+        <v>2474698079.959257</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1539138668445807</v>
+        <v>0.1543182224080531</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02408391628308441</v>
+        <v>0.02304429343190433</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1129782913.880054</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1690978602.558829</v>
+        <v>1584329074.383636</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09596701273779214</v>
+        <v>0.07454086496074386</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0318254880993523</v>
+        <v>0.0363021146736282</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>845489345.9723418</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2112064921.500517</v>
+        <v>2528519410.894845</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1707041589201199</v>
+        <v>0.1521847402686188</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03798760788464325</v>
+        <v>0.04343940952052899</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1056032462.899927</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5633553519.876362</v>
+        <v>4112390102.047561</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1383484645287164</v>
+        <v>0.1131119358633846</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03719454955611663</v>
+        <v>0.05148104895742075</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>136</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2816776823.020914</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4329719337.794699</v>
+        <v>4696099575.502851</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1717915497871499</v>
+        <v>0.1818097268300532</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04070171967727407</v>
+        <v>0.05014597810393136</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>103</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2164859686.708177</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3056785519.737794</v>
+        <v>3064486047.567252</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0866555247283152</v>
+        <v>0.09654134124394871</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0239066965298231</v>
+        <v>0.03417084464210426</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1528392849.050597</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1298448597.919608</v>
+        <v>1679130201.049943</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1877508397656245</v>
+        <v>0.1711964775933806</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03887019236745506</v>
+        <v>0.02973828607129895</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>649224362.3398074</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3744422939.763563</v>
+        <v>3117127407.774814</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1256637727170205</v>
+        <v>0.1246649304081291</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0500073392306239</v>
+        <v>0.03281726561838085</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>131</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1872211476.752021</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1393557754.508716</v>
+        <v>1323437365.147851</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1617366369745659</v>
+        <v>0.1864294072824631</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0451250824890129</v>
+        <v>0.03379419916560931</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>696778897.4559803</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4846026937.137632</v>
+        <v>3276199965.698354</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1379622232942615</v>
+        <v>0.1312859805896202</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0524211243087102</v>
+        <v>0.0507876171483514</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>158</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2423013475.2718</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2626144691.327983</v>
+        <v>2678070820.881973</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1729021759316202</v>
+        <v>0.1230742962273108</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02330652962710162</v>
+        <v>0.03345273747439812</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>110</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1313072403.945493</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3617041699.436763</v>
+        <v>2996882007.950259</v>
       </c>
       <c r="F54" t="n">
-        <v>0.169550382465349</v>
+        <v>0.1651294546466179</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04677820706846921</v>
+        <v>0.0449822231562259</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>124</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1808520883.741429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4123718450.027287</v>
+        <v>3614720710.969462</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1978905486139754</v>
+        <v>0.1516326847225829</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02599130545402891</v>
+        <v>0.0218572483686162</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2061859205.395225</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1406265832.363382</v>
+        <v>1800888054.512429</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1109970852369962</v>
+        <v>0.1043218827957502</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05739808334723503</v>
+        <v>0.05176988599287288</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>703132972.3118815</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3530317181.339915</v>
+        <v>2955959367.226752</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1671746054672096</v>
+        <v>0.1642270110744357</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02444602902426067</v>
+        <v>0.02389156673628873</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>122</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1765158639.616201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1426430510.997532</v>
+        <v>1600696701.849199</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1852209115004975</v>
+        <v>0.1597336980371366</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02995319909609279</v>
+        <v>0.03000945937388856</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>713215293.3567922</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4014714568.730017</v>
+        <v>4535296741.333758</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08852024149802908</v>
+        <v>0.1081230100108998</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04545593291239929</v>
+        <v>0.03479820937176076</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2007357259.624323</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2915339870.369225</v>
+        <v>2473159709.618529</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1605754097040475</v>
+        <v>0.1488713027609233</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02560553680635948</v>
+        <v>0.02976081038314167</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1457669996.665109</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2773547780.029988</v>
+        <v>3269478762.900806</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1107679388109836</v>
+        <v>0.1500266721333419</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02659673018340178</v>
+        <v>0.0249838662809447</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>132</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1386773891.850287</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2050367676.919072</v>
+        <v>1902934828.77772</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1658480203922596</v>
+        <v>0.1747014308644152</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04219774053186037</v>
+        <v>0.03926015211210564</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1025183904.068085</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3851106854.930936</v>
+        <v>4238982183.27102</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09962672903188163</v>
+        <v>0.1034051162708628</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0474570285156433</v>
+        <v>0.03747596149532145</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1925553496.505871</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3504774093.291968</v>
+        <v>5238787508.285927</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1857591842584152</v>
+        <v>0.1811045999715489</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02151004966608987</v>
+        <v>0.0232375485739653</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>119</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1752387047.685497</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4597376206.667432</v>
+        <v>5232013524.102497</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1253027610595991</v>
+        <v>0.1327070004792845</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0259419446411356</v>
+        <v>0.02420082147347562</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>137</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2298688086.269242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4260953086.499724</v>
+        <v>5475131860.020977</v>
       </c>
       <c r="F66" t="n">
-        <v>0.14476447995741</v>
+        <v>0.09853822381177922</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04613785153212276</v>
+        <v>0.03270880238804177</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>112</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2130476530.827762</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2258051951.517474</v>
+        <v>3116564162.413649</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09027025121929369</v>
+        <v>0.07476493493431863</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03757874343485972</v>
+        <v>0.03797581747897758</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>123</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1129026056.858058</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5595847377.766166</v>
+        <v>3949947056.194147</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1557695733796514</v>
+        <v>0.1160140904655263</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03714378471141354</v>
+        <v>0.03383680674934411</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>124</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2797923781.392442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1778636496.591619</v>
+        <v>1509360315.543056</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1125929031244555</v>
+        <v>0.1139330258086891</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05226909004544586</v>
+        <v>0.04765048962603564</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>889318224.643468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3526185785.100208</v>
+        <v>2851170525.752543</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09668424313952677</v>
+        <v>0.07223220687032851</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04864934015257907</v>
+        <v>0.03652074358907421</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>110</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1763092903.806227</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5594206326.392698</v>
+        <v>3993166907.603513</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1206179568136391</v>
+        <v>0.1766659920182681</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02664669732474384</v>
+        <v>0.02782266131928325</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>139</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2797103313.24679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2183034947.303277</v>
+        <v>1622535062.684941</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0866014954141781</v>
+        <v>0.07724269483516139</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04333351573336119</v>
+        <v>0.04923430949061069</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1091517390.46145</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3008121737.226017</v>
+        <v>3355881213.630808</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1122261166090831</v>
+        <v>0.09613335543061234</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0327062259451248</v>
+        <v>0.03951827050290297</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>145</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1504060863.859736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2778830050.089695</v>
+        <v>3266586741.714715</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1165623845984663</v>
+        <v>0.1633919162388607</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02704190422649312</v>
+        <v>0.02330790002699664</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>130</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1389415109.589485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2415859150.820771</v>
+        <v>2473520621.635316</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1053924689663834</v>
+        <v>0.1450278597778866</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03697820255852013</v>
+        <v>0.03770124177507522</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1207929500.571682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3299651426.129004</v>
+        <v>4450880586.044254</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08252488280428152</v>
+        <v>0.1135313806420709</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02843023567561884</v>
+        <v>0.03414923279246081</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1649825668.444663</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2171134287.13235</v>
+        <v>2254262781.529551</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1833072434968243</v>
+        <v>0.1321547028027788</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02187003470041876</v>
+        <v>0.03036275537186054</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1085567230.352507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4554550478.8385</v>
+        <v>4104194036.463982</v>
       </c>
       <c r="F78" t="n">
-        <v>0.112001315320975</v>
+        <v>0.0838388121582222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03906112807455925</v>
+        <v>0.03579743455658865</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>133</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2277275165.484668</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1259480706.361656</v>
+        <v>1862293768.36537</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1340156205413416</v>
+        <v>0.1451681647507929</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02485981595110401</v>
+        <v>0.0326491825022664</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>629740345.3391677</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4269909696.681208</v>
+        <v>3895083342.610421</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09297936063152819</v>
+        <v>0.08876569576440649</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0274892476098524</v>
+        <v>0.03582102141018198</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2134954861.246855</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4847399260.712484</v>
+        <v>4405599136.318328</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1199567407217496</v>
+        <v>0.1363473591482622</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02615606087908099</v>
+        <v>0.02036985196659351</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2423699625.052329</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4074545260.641528</v>
+        <v>4520598295.359251</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1754116548142031</v>
+        <v>0.1554114127244205</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02360362230149682</v>
+        <v>0.01900490252348007</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2037272665.908525</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1742792141.060116</v>
+        <v>2003956103.403145</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1521267463108062</v>
+        <v>0.1467716031666005</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04411933440463606</v>
+        <v>0.03947127284721069</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>871396023.8702203</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2268520847.374575</v>
+        <v>2232697511.35217</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1091521264656288</v>
+        <v>0.1179815621552137</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03907176403517017</v>
+        <v>0.03466977404638932</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1134260389.368258</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3561254261.044005</v>
+        <v>3117787269.834784</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1158653322061556</v>
+        <v>0.1529324817818792</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03831500617677459</v>
+        <v>0.04108198760059809</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>145</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1780627252.636582</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2731864786.527957</v>
+        <v>2579857168.653082</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1586972813839228</v>
+        <v>0.1677468669282245</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01919469977135709</v>
+        <v>0.01837184913050934</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1365932522.672684</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1150119754.74187</v>
+        <v>917017329.1687641</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1408236337535764</v>
+        <v>0.1470449556114972</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03068155887808669</v>
+        <v>0.03786844144612267</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>575059920.1883</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2747044260.507699</v>
+        <v>3371947687.271535</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785659912930294</v>
+        <v>0.1690675170059565</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03016019822447475</v>
+        <v>0.03257572963125741</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>151</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1373522135.709211</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2917591756.172532</v>
+        <v>2637100498.659301</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1313760971374217</v>
+        <v>0.1112921388830747</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03718676192591535</v>
+        <v>0.03515807198170663</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>130</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1458795922.238361</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1522576526.167468</v>
+        <v>1644209955.779537</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1266503850971686</v>
+        <v>0.08587063396763679</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03432450098317726</v>
+        <v>0.05524706020841814</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>761288245.9590127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1459687647.611808</v>
+        <v>1564312486.567303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1890304844158158</v>
+        <v>0.1663941423437807</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0573435545882123</v>
+        <v>0.04220323031993268</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>729843868.0982544</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2026759936.298552</v>
+        <v>2540965752.805366</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06972792534945771</v>
+        <v>0.0774088468171254</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04734548513542063</v>
+        <v>0.03832606151611046</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1013379916.402795</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4326107730.998875</v>
+        <v>4183669321.06383</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1168714294864966</v>
+        <v>0.1026972007911591</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04079431756856668</v>
+        <v>0.04612205022510241</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>113</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2163053845.051815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1934688406.511362</v>
+        <v>2328972225.039783</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1445746472309828</v>
+        <v>0.1291651837714556</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04011863625332544</v>
+        <v>0.02760427169447971</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>967344193.0903486</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2723588424.850775</v>
+        <v>2414072354.200665</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1141668900521264</v>
+        <v>0.1226677592213724</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04202029197567409</v>
+        <v>0.03990473831609864</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1361794232.275043</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1649414671.350196</v>
+        <v>2287327880.505134</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1074166522290667</v>
+        <v>0.121636155190474</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03903562302100962</v>
+        <v>0.04036141030125637</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>824707360.0841291</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4168256788.981579</v>
+        <v>3830150571.014071</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1696262227494194</v>
+        <v>0.1746091536595543</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02896123739638302</v>
+        <v>0.02288818601295219</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>123</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2084128464.423249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3031611740.614903</v>
+        <v>3566175458.902252</v>
       </c>
       <c r="F98" t="n">
-        <v>0.118375392510184</v>
+        <v>0.1040799492541443</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02180618139378539</v>
+        <v>0.02568445693708443</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>102</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1515805857.190543</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2394573501.377759</v>
+        <v>2554596539.607603</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1115719801667473</v>
+        <v>0.14836225211311</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02453732582237116</v>
+        <v>0.02520677303736216</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1197286692.794839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3837711018.68998</v>
+        <v>4258337766.443907</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1588213539245216</v>
+        <v>0.1354879796653163</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02447895184305521</v>
+        <v>0.02433840942065455</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>117</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1918855567.062867</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3510627406.777542</v>
+        <v>3407644914.18346</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1347573740416183</v>
+        <v>0.1723513858283698</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04843209336253038</v>
+        <v>0.03968595636450484</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>156</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1755313859.943882</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_384.xlsx
+++ b/output/fit_clients/fit_round_384.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1660076254.392382</v>
+        <v>1546454582.399052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09422166948108587</v>
+        <v>0.09356155576271061</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02792725267879894</v>
+        <v>0.03949107126725455</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2648360731.339887</v>
+        <v>2558473146.09442</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1124973266101578</v>
+        <v>0.1153117732094591</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03080442292382609</v>
+        <v>0.04512739072810587</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4530082844.464531</v>
+        <v>3839453422.064655</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1139254389437944</v>
+        <v>0.1227833990365501</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03336372877843224</v>
+        <v>0.02582480763062543</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3240585135.963438</v>
+        <v>3902243507.499714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09366935750175054</v>
+        <v>0.07461003228017986</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04153842849752656</v>
+        <v>0.05030952400167073</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1815870666.637749</v>
+        <v>2195665353.395</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1019590133929404</v>
+        <v>0.1248483105737356</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03547479084652913</v>
+        <v>0.05099225996815795</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1973872034.267608</v>
+        <v>3091034169.267114</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1007216481011297</v>
+        <v>0.08520715151773658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0484247076219643</v>
+        <v>0.04325940276395283</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3587547179.057831</v>
+        <v>3214632526.856102</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1431682240636938</v>
+        <v>0.2014763139839381</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02088650857667474</v>
+        <v>0.02359559044164117</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1681617028.687541</v>
+        <v>2265690458.097654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1617098770293352</v>
+        <v>0.1482886856404933</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03219378770849314</v>
+        <v>0.02929129658313048</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5394253231.144722</v>
+        <v>4905413051.393805</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2131026344725671</v>
+        <v>0.1806307402809734</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03629095727466303</v>
+        <v>0.04933524362361494</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3828327407.080173</v>
+        <v>3063150261.83493</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1385327626627326</v>
+        <v>0.1910363919240665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04524340421048729</v>
+        <v>0.03852644321763514</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2840976157.436677</v>
+        <v>2382243403.637761</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1498618162962791</v>
+        <v>0.1712236829516225</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04658858675011898</v>
+        <v>0.03919036040853641</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4902743862.624672</v>
+        <v>4943859237.881698</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0969832322261381</v>
+        <v>0.06887942762256623</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02442447869762442</v>
+        <v>0.02559088426347829</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2515305056.468668</v>
+        <v>3604947069.786321</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1222930454276339</v>
+        <v>0.184271073942616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04050952615893218</v>
+        <v>0.03190109222185205</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1120788383.770168</v>
+        <v>1439286852.272463</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08600972750426067</v>
+        <v>0.08352267761232712</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04652935092305395</v>
+        <v>0.03965978467817816</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2422496395.384777</v>
+        <v>2223308062.573429</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09176962111629561</v>
+        <v>0.0736110609225837</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04184314405837682</v>
+        <v>0.04021169481815503</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4241597447.108848</v>
+        <v>3788204355.048847</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1527977312515404</v>
+        <v>0.1546205954210028</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05179195625486301</v>
+        <v>0.03956085322812029</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3970267430.335087</v>
+        <v>3786523703.306877</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1507322509366453</v>
+        <v>0.1399295507005019</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03147158784304477</v>
+        <v>0.0240800122927459</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1363003187.723575</v>
+        <v>1097050248.084528</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1620611416177307</v>
+        <v>0.1670787203650641</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02210610025492979</v>
+        <v>0.01752206060501477</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2455804068.82167</v>
+        <v>2179415966.94153</v>
       </c>
       <c r="F20" t="n">
-        <v>0.150371047204353</v>
+        <v>0.1284886424265943</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02429709073379425</v>
+        <v>0.02492865058185051</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2556999571.399889</v>
+        <v>1731855620.340612</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07568453391833085</v>
+        <v>0.09685913511386582</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0387916194799776</v>
+        <v>0.033036910203297</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3948169357.996321</v>
+        <v>3233281221.41237</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1188467412321399</v>
+        <v>0.1093971103511161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05519744551310714</v>
+        <v>0.03933699047566722</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1007490772.806195</v>
+        <v>1461549243.848513</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1610608946431963</v>
+        <v>0.146490393274474</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0355589353168527</v>
+        <v>0.05123030362149962</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4084020432.449387</v>
+        <v>3656224007.499106</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1179905193253475</v>
+        <v>0.09058013607072328</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03077758701407278</v>
+        <v>0.02392503290827265</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1230356791.303906</v>
+        <v>1351920345.792894</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1122685086759764</v>
+        <v>0.08692968507020365</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02575248401339573</v>
+        <v>0.02370968806354883</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>999819353.5771309</v>
+        <v>1425753839.633138</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1054842583641805</v>
+        <v>0.1164927808028138</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03392670426658945</v>
+        <v>0.03299981075470489</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3934194106.278095</v>
+        <v>4205490554.063892</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1384508828936684</v>
+        <v>0.1089479733879793</v>
       </c>
       <c r="G27" t="n">
-        <v>0.016749148911753</v>
+        <v>0.02380827523577705</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3146070319.252674</v>
+        <v>3551384325.825366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1316448112134785</v>
+        <v>0.1271082835738973</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0412599254659774</v>
+        <v>0.03421382728932015</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4381331243.019478</v>
+        <v>3797772580.030138</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1275773248002441</v>
+        <v>0.110354432243203</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03735642973130277</v>
+        <v>0.03790154300797352</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1767861176.520993</v>
+        <v>1839191855.163114</v>
       </c>
       <c r="F30" t="n">
-        <v>0.117857141364717</v>
+        <v>0.1006110517139637</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0315027267030656</v>
+        <v>0.03472677385582408</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1192188575.779652</v>
+        <v>966327561.1742599</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07600228620281925</v>
+        <v>0.08166946155051888</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04313100417384001</v>
+        <v>0.05017006751802411</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1632256818.95548</v>
+        <v>1461902849.955976</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1118949114116247</v>
+        <v>0.0782193883313522</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03023055791612722</v>
+        <v>0.0249137619704424</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2599872773.540617</v>
+        <v>1895266485.972559</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1712045304527012</v>
+        <v>0.192542974437206</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06091032399570966</v>
+        <v>0.04303390111140835</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1410279654.685117</v>
+        <v>1161895707.143783</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09389853416250074</v>
+        <v>0.07564783672007482</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02710013056320349</v>
+        <v>0.02156848012157163</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>999447217.6730862</v>
+        <v>871444317.0436454</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1177497672108571</v>
+        <v>0.0894240668929298</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02747293698813161</v>
+        <v>0.03548743302444477</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2216743751.693988</v>
+        <v>2157789966.538847</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1429065509941111</v>
+        <v>0.1700614361079073</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01771073319583145</v>
+        <v>0.02326888045450408</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1778791365.15345</v>
+        <v>2089342538.054571</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0793143203071856</v>
+        <v>0.07165683100961003</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02733798476774918</v>
+        <v>0.02600067419447899</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1410627826.928224</v>
+        <v>2191021886.141392</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0739085702472079</v>
+        <v>0.07474215881818087</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03244330729817339</v>
+        <v>0.0267827051198595</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1862778904.820286</v>
+        <v>1898285042.634198</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1423027693066663</v>
+        <v>0.1482104355787622</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02917323040920941</v>
+        <v>0.02582716290565217</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1756157189.911656</v>
+        <v>1441771448.962435</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1386839874793337</v>
+        <v>0.1487642069357819</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04720796336954042</v>
+        <v>0.04004494847333985</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2495479318.247477</v>
+        <v>2861748786.912786</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1007859363052571</v>
+        <v>0.1318546439142477</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03176689985821377</v>
+        <v>0.04294926213565545</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4231840340.532861</v>
+        <v>4233608373.966278</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09963283910881437</v>
+        <v>0.07982398675780399</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03311220230405232</v>
+        <v>0.03979227692706404</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2474698079.959257</v>
+        <v>2107474859.712265</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1543182224080531</v>
+        <v>0.187966568952009</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02304429343190433</v>
+        <v>0.01766315920064759</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1584329074.383636</v>
+        <v>1993001385.035622</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07454086496074386</v>
+        <v>0.07138848634462047</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0363021146736282</v>
+        <v>0.02917921551404476</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2528519410.894845</v>
+        <v>2168048377.903583</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1521847402686188</v>
+        <v>0.1533674208455673</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04343940952052899</v>
+        <v>0.04387476608594822</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4112390102.047561</v>
+        <v>5106254721.724033</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1131119358633846</v>
+        <v>0.1717041148601824</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05148104895742075</v>
+        <v>0.04630095699392333</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4696099575.502851</v>
+        <v>5157061914.885536</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1818097268300532</v>
+        <v>0.1224589053425146</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05014597810393136</v>
+        <v>0.04837936853577573</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3064486047.567252</v>
+        <v>3763366771.10802</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09654134124394871</v>
+        <v>0.067392426192215</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03417084464210426</v>
+        <v>0.03416170367584373</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1679130201.049943</v>
+        <v>1497483316.145225</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1711964775933806</v>
+        <v>0.138387400035798</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02973828607129895</v>
+        <v>0.0328969972336468</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3117127407.774814</v>
+        <v>2598977375.01587</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1246649304081291</v>
+        <v>0.1308129353512544</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03281726561838085</v>
+        <v>0.05171122328604767</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1323437365.147851</v>
+        <v>1316697194.895431</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1864294072824631</v>
+        <v>0.1407148120792545</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03379419916560931</v>
+        <v>0.03419952479228159</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3276199965.698354</v>
+        <v>4444017090.252252</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1312859805896202</v>
+        <v>0.1307747112508936</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0507876171483514</v>
+        <v>0.05687206559598533</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2678070820.881973</v>
+        <v>3009172976.940572</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1230742962273108</v>
+        <v>0.1485661935133809</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03345273747439812</v>
+        <v>0.03273219907314905</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>2996882007.950259</v>
+        <v>3547494713.413892</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1651294546466179</v>
+        <v>0.1299111229938397</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0449822231562259</v>
+        <v>0.0494221104731222</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3614720710.969462</v>
+        <v>4043854716.637101</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1516326847225829</v>
+        <v>0.1358545079383666</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0218572483686162</v>
+        <v>0.02008200047592106</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1800888054.512429</v>
+        <v>1798420265.142491</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1043218827957502</v>
+        <v>0.1050665300006917</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05176988599287288</v>
+        <v>0.03706230037999933</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2955959367.226752</v>
+        <v>3930420523.567019</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1642270110744357</v>
+        <v>0.1823168529128232</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02389156673628873</v>
+        <v>0.02552531363089395</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1600696701.849199</v>
+        <v>1874952675.87508</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1597336980371366</v>
+        <v>0.1526939275303563</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03000945937388856</v>
+        <v>0.03782782990214665</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4535296741.333758</v>
+        <v>4757430933.859679</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1081230100108998</v>
+        <v>0.1100142922592117</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03479820937176076</v>
+        <v>0.03050835332926207</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2473159709.618529</v>
+        <v>2992512745.091752</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1488713027609233</v>
+        <v>0.1885530954338768</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02976081038314167</v>
+        <v>0.02729096801435072</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3269478762.900806</v>
+        <v>2665497627.10174</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1500266721333419</v>
+        <v>0.1532058113039317</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0249838662809447</v>
+        <v>0.02393038097280354</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1902934828.77772</v>
+        <v>1825924049.444054</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1747014308644152</v>
+        <v>0.1180235569535379</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03926015211210564</v>
+        <v>0.03576851532803448</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4238982183.27102</v>
+        <v>4296152982.221875</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1034051162708628</v>
+        <v>0.08899985180533214</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03747596149532145</v>
+        <v>0.02922335971834724</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5238787508.285927</v>
+        <v>4337600233.503679</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1811045999715489</v>
+        <v>0.1816754576938783</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0232375485739653</v>
+        <v>0.02942338054934229</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5232013524.102497</v>
+        <v>4347515137.947569</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1327070004792845</v>
+        <v>0.1563024715364767</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02420082147347562</v>
+        <v>0.02151675296715719</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5475131860.020977</v>
+        <v>5449279175.204174</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09853822381177922</v>
+        <v>0.1015663377648213</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03270880238804177</v>
+        <v>0.03512430991162674</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3116564162.413649</v>
+        <v>2288248205.586554</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07476493493431863</v>
+        <v>0.09468109286812196</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03797581747897758</v>
+        <v>0.03956448922384551</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3949947056.194147</v>
+        <v>5701999105.187377</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1160140904655263</v>
+        <v>0.1393114456434069</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03383680674934411</v>
+        <v>0.03905974364287606</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1509360315.543056</v>
+        <v>2152950300.309895</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1139330258086891</v>
+        <v>0.1727229531122858</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04765048962603564</v>
+        <v>0.0371040235640539</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2851170525.752543</v>
+        <v>3201510724.008092</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07223220687032851</v>
+        <v>0.0639048210248756</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03652074358907421</v>
+        <v>0.03824673852476913</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3993166907.603513</v>
+        <v>5344085862.8015</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1766659920182681</v>
+        <v>0.1448293436832682</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02782266131928325</v>
+        <v>0.03200701234116116</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1622535062.684941</v>
+        <v>2003731133.010391</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07724269483516139</v>
+        <v>0.08235562373821836</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04923430949061069</v>
+        <v>0.05269734667605456</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3355881213.630808</v>
+        <v>3231949216.778177</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09613335543061234</v>
+        <v>0.1013581869019748</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03951827050290297</v>
+        <v>0.04245119001393022</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3266586741.714715</v>
+        <v>2703645058.798035</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1633919162388607</v>
+        <v>0.1743480518869414</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02330790002699664</v>
+        <v>0.03515805136842749</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2473520621.635316</v>
+        <v>1718873996.29377</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1450278597778866</v>
+        <v>0.164160563611244</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03770124177507522</v>
+        <v>0.02859150817788018</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4450880586.044254</v>
+        <v>4947903491.687361</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1135313806420709</v>
+        <v>0.1031628322467661</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03414923279246081</v>
+        <v>0.03240411176123737</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2254262781.529551</v>
+        <v>2261813571.583219</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1321547028027788</v>
+        <v>0.1798106254081756</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03036275537186054</v>
+        <v>0.02550214962369211</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4104194036.463982</v>
+        <v>3806987864.546191</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0838388121582222</v>
+        <v>0.09938503860774876</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03579743455658865</v>
+        <v>0.04320020748062816</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1862293768.36537</v>
+        <v>1232538429.539994</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1451681647507929</v>
+        <v>0.159832696398595</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0326491825022664</v>
+        <v>0.02845986240998925</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3895083342.610421</v>
+        <v>4868104538.288724</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08876569576440649</v>
+        <v>0.07609730443814119</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03582102141018198</v>
+        <v>0.02384782053266844</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4405599136.318328</v>
+        <v>3451249257.335375</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1363473591482622</v>
+        <v>0.1288997693761785</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02036985196659351</v>
+        <v>0.02307650486513409</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4520598295.359251</v>
+        <v>5171319678.092989</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1554114127244205</v>
+        <v>0.1581545489437871</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01900490252348007</v>
+        <v>0.02072243734315653</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2003956103.403145</v>
+        <v>1598238462.152215</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1467716031666005</v>
+        <v>0.1242388343029254</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03947127284721069</v>
+        <v>0.04533225315462342</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2232697511.35217</v>
+        <v>2012220229.674744</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1179815621552137</v>
+        <v>0.09985310913255871</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03466977404638932</v>
+        <v>0.04664922970106157</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3117787269.834784</v>
+        <v>3250362713.043146</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1529324817818792</v>
+        <v>0.1231954831933639</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04108198760059809</v>
+        <v>0.05014435486768246</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2579857168.653082</v>
+        <v>1985705360.349179</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1677468669282245</v>
+        <v>0.1075366875503744</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01837184913050934</v>
+        <v>0.02012547449598831</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>917017329.1687641</v>
+        <v>1471725495.579115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1470449556114972</v>
+        <v>0.127859333099099</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03786844144612267</v>
+        <v>0.03164099206586467</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3371947687.271535</v>
+        <v>3141446100.310579</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1690675170059565</v>
+        <v>0.1155694119054584</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03257572963125741</v>
+        <v>0.02489726322620981</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2637100498.659301</v>
+        <v>3160092365.267404</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1112921388830747</v>
+        <v>0.1548389716660905</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03515807198170663</v>
+        <v>0.02772757059015039</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1644209955.779537</v>
+        <v>2023577366.224094</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08587063396763679</v>
+        <v>0.1150131761989153</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05524706020841814</v>
+        <v>0.0470868370514507</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1564312486.567303</v>
+        <v>1988069496.98766</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1663941423437807</v>
+        <v>0.1897657536407356</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04220323031993268</v>
+        <v>0.04806396420628814</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2540965752.805366</v>
+        <v>2325435562.826678</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0774088468171254</v>
+        <v>0.0783028534949626</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03832606151611046</v>
+        <v>0.04656624129949349</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4183669321.06383</v>
+        <v>4864992499.981459</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1026972007911591</v>
+        <v>0.1349828717028632</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04612205022510241</v>
+        <v>0.04215873972259179</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2328972225.039783</v>
+        <v>2032488368.775429</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1291651837714556</v>
+        <v>0.143648611497998</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02760427169447971</v>
+        <v>0.04231068939938168</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2414072354.200665</v>
+        <v>2516257651.973214</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1226677592213724</v>
+        <v>0.1012122447266093</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03990473831609864</v>
+        <v>0.04226180939101588</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2287327880.505134</v>
+        <v>1823518613.268572</v>
       </c>
       <c r="F96" t="n">
-        <v>0.121636155190474</v>
+        <v>0.1191170860578759</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04036141030125637</v>
+        <v>0.03257450843183807</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3830150571.014071</v>
+        <v>4991687069.740968</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1746091536595543</v>
+        <v>0.1186004053947747</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02288818601295219</v>
+        <v>0.0280681720752563</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3566175458.902252</v>
+        <v>3001348265.795471</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1040799492541443</v>
+        <v>0.1062313233903046</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02568445693708443</v>
+        <v>0.03256796572189086</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2554596539.607603</v>
+        <v>2666114894.528876</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14836225211311</v>
+        <v>0.1367730872736895</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02520677303736216</v>
+        <v>0.0260793375055691</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4258337766.443907</v>
+        <v>4216158331.606129</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1354879796653163</v>
+        <v>0.1290514856945796</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02433840942065455</v>
+        <v>0.0224383542670764</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3407644914.18346</v>
+        <v>3543096315.482744</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1723513858283698</v>
+        <v>0.1515222498155499</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03968595636450484</v>
+        <v>0.05684148328681195</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_384.xlsx
+++ b/output/fit_clients/fit_round_384.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1546454582.399052</v>
+        <v>2161782543.764568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09356155576271061</v>
+        <v>0.0746652839191313</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03949107126725455</v>
+        <v>0.03754907513537255</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2558473146.09442</v>
+        <v>2453642135.400968</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1153117732094591</v>
+        <v>0.1632151154138318</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04512739072810587</v>
+        <v>0.0498324589213505</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3839453422.064655</v>
+        <v>5128111865.531313</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1227833990365501</v>
+        <v>0.1623632481983091</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02582480763062543</v>
+        <v>0.03529452501531209</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>196</v>
+      </c>
+      <c r="J4" t="n">
+        <v>384</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3902243507.499714</v>
+        <v>3104820382.88741</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07461003228017986</v>
+        <v>0.09472456612195566</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05030952400167073</v>
+        <v>0.0432702055173013</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>155</v>
+      </c>
+      <c r="J5" t="n">
+        <v>383</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41.47379856759465</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2195665353.395</v>
+        <v>2117073941.783353</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248483105737356</v>
+        <v>0.09263407512146267</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05099225996815795</v>
+        <v>0.03702804486646866</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3091034169.267114</v>
+        <v>3084451550.167027</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08520715151773658</v>
+        <v>0.08290260371192916</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04325940276395283</v>
+        <v>0.03364455160372946</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3214632526.856102</v>
+        <v>3604784933.652465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2014763139839381</v>
+        <v>0.2128325158724609</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02359559044164117</v>
+        <v>0.03246301886107704</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>103</v>
+      </c>
+      <c r="J8" t="n">
+        <v>384</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2265690458.097654</v>
+        <v>1597602041.995078</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1482886856404933</v>
+        <v>0.1463702345310245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02929129658313048</v>
+        <v>0.03291675018608638</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4905413051.393805</v>
+        <v>3955443153.867679</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1806307402809734</v>
+        <v>0.1808854107289894</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04933524362361494</v>
+        <v>0.05041319609471038</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>314</v>
+      </c>
+      <c r="J10" t="n">
+        <v>383</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50.88432685047616</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3063150261.83493</v>
+        <v>4002725931.162024</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1910363919240665</v>
+        <v>0.1480074733256079</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03852644321763514</v>
+        <v>0.03970833909194002</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>161</v>
+      </c>
+      <c r="J11" t="n">
+        <v>384</v>
+      </c>
+      <c r="K11" t="n">
+        <v>61.13851146138423</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2382243403.637761</v>
+        <v>2099334905.547545</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1712236829516225</v>
+        <v>0.1871677505019173</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03919036040853641</v>
+        <v>0.05132802274391634</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4943859237.881698</v>
+        <v>4156678409.919127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06887942762256623</v>
+        <v>0.09670653741466133</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02559088426347829</v>
+        <v>0.02237252781072147</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>199</v>
+      </c>
+      <c r="J13" t="n">
+        <v>384</v>
+      </c>
+      <c r="K13" t="n">
+        <v>54.85063230953737</v>
       </c>
     </row>
     <row r="14">
@@ -822,17 +929,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3604947069.786321</v>
+        <v>2993565916.95266</v>
       </c>
       <c r="F14" t="n">
-        <v>0.184271073942616</v>
+        <v>0.1352770858136915</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03190109222185205</v>
+        <v>0.03734493161710891</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>79</v>
+      </c>
+      <c r="J14" t="n">
+        <v>381</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1439286852.272463</v>
+        <v>1345411006.180276</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08352267761232712</v>
+        <v>0.08189398556433375</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03965978467817816</v>
+        <v>0.04618099973728341</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2223308062.573429</v>
+        <v>2225976887.435708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0736110609225837</v>
+        <v>0.09080423426298553</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04021169481815503</v>
+        <v>0.03288568833305595</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3788204355.048847</v>
+        <v>4934362969.304481</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1546205954210028</v>
+        <v>0.1067724954856376</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03956085322812029</v>
+        <v>0.0459571022774709</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>183</v>
+      </c>
+      <c r="J17" t="n">
+        <v>384</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3786523703.306877</v>
+        <v>3227526347.962029</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1399295507005019</v>
+        <v>0.1544800209502155</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0240800122927459</v>
+        <v>0.03066075821505692</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="n">
+        <v>46.75170236183264</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1097050248.084528</v>
+        <v>1071056942.768175</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1670787203650641</v>
+        <v>0.1460414131562428</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01752206060501477</v>
+        <v>0.01765324869190264</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2179415966.94153</v>
+        <v>2280490712.193779</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1284886424265943</v>
+        <v>0.1575448029485821</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02492865058185051</v>
+        <v>0.03069506943299666</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1731855620.340612</v>
+        <v>1908143375.137105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09685913511386582</v>
+        <v>0.09882852238072563</v>
       </c>
       <c r="G21" t="n">
-        <v>0.033036910203297</v>
+        <v>0.03156283192999629</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3233281221.41237</v>
+        <v>2571532581.674848</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1093971103511161</v>
+        <v>0.1400453823906901</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03933699047566722</v>
+        <v>0.05072679162710992</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1461549243.848513</v>
+        <v>955173795.829968</v>
       </c>
       <c r="F23" t="n">
-        <v>0.146490393274474</v>
+        <v>0.1221148280205644</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05123030362149962</v>
+        <v>0.04577289607641952</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3656224007.499106</v>
+        <v>3217891384.923763</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09058013607072328</v>
+        <v>0.1331714433778707</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02392503290827265</v>
+        <v>0.02666304007415904</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1351920345.792894</v>
+        <v>894547855.3191518</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08692968507020365</v>
+        <v>0.1063736088003177</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02370968806354883</v>
+        <v>0.0281258010521813</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1425753839.633138</v>
+        <v>1418481765.364256</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1164927808028138</v>
+        <v>0.1152954592899876</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03299981075470489</v>
+        <v>0.03023167123893497</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4205490554.063892</v>
+        <v>3491087295.286049</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1089479733879793</v>
+        <v>0.1510483151455701</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02380827523577705</v>
+        <v>0.02602105187781011</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>160</v>
+      </c>
+      <c r="J27" t="n">
+        <v>383</v>
+      </c>
+      <c r="K27" t="n">
+        <v>44.20628823859807</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1423,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3551384325.825366</v>
+        <v>3779653848.669416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1271082835738973</v>
+        <v>0.1488783376810967</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03421382728932015</v>
+        <v>0.04671325439224205</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>89</v>
+      </c>
+      <c r="J28" t="n">
+        <v>384</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1458,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3797772580.030138</v>
+        <v>5171194427.369605</v>
       </c>
       <c r="F29" t="n">
-        <v>0.110354432243203</v>
+        <v>0.09242526186818113</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03790154300797352</v>
+        <v>0.03432326621752047</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>330</v>
+      </c>
+      <c r="J29" t="n">
+        <v>384</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1839191855.163114</v>
+        <v>1914830138.072665</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1006110517139637</v>
+        <v>0.1212503578919425</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03472677385582408</v>
+        <v>0.03684267241268479</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>966327561.1742599</v>
+        <v>1283949293.906477</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08166946155051888</v>
+        <v>0.07591810994839436</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05017006751802411</v>
+        <v>0.03265251266526757</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1461902849.955976</v>
+        <v>1515290643.120495</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0782193883313522</v>
+        <v>0.1143648089949605</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0249137619704424</v>
+        <v>0.0377087530929496</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1895266485.972559</v>
+        <v>2887114827.654574</v>
       </c>
       <c r="F33" t="n">
-        <v>0.192542974437206</v>
+        <v>0.1782839585317151</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04303390111140835</v>
+        <v>0.04840918944287691</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1161895707.143783</v>
+        <v>1120570974.613045</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07564783672007482</v>
+        <v>0.07471801769158894</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02156848012157163</v>
+        <v>0.02075534479271322</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>871444317.0436454</v>
+        <v>1039486331.671629</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0894240668929298</v>
+        <v>0.09821538210312372</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03548743302444477</v>
+        <v>0.02997964721441996</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2157789966.538847</v>
+        <v>3199053929.527422</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1700614361079073</v>
+        <v>0.1139536637375738</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02326888045450408</v>
+        <v>0.02348374665817278</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2089342538.054571</v>
+        <v>2531274675.584834</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07165683100961003</v>
+        <v>0.1003565402907505</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02600067419447899</v>
+        <v>0.03992348292582517</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2191021886.141392</v>
+        <v>1829406248.982703</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07474215881818087</v>
+        <v>0.1144514136297416</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0267827051198595</v>
+        <v>0.03541699958664031</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1898285042.634198</v>
+        <v>1418209344.495012</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1482104355787622</v>
+        <v>0.1579574860085102</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02582716290565217</v>
+        <v>0.02915612940091936</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1441771448.962435</v>
+        <v>1284879265.63087</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1487642069357819</v>
+        <v>0.1371384907984683</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04004494847333985</v>
+        <v>0.04655774349491922</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2861748786.912786</v>
+        <v>2192857970.160873</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1318546439142477</v>
+        <v>0.145133416969801</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04294926213565545</v>
+        <v>0.03041129000858598</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4233608373.966278</v>
+        <v>2800008558.522919</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07982398675780399</v>
+        <v>0.1136794419044598</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03979227692706404</v>
+        <v>0.0420890294842243</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>168</v>
+      </c>
+      <c r="J42" t="n">
+        <v>382</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2107474859.712265</v>
+        <v>2066952478.992281</v>
       </c>
       <c r="F43" t="n">
-        <v>0.187966568952009</v>
+        <v>0.1293885906941913</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01766315920064759</v>
+        <v>0.01906815288456315</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1993001385.035622</v>
+        <v>1625212020.048092</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07138848634462047</v>
+        <v>0.08540913575166167</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02917921551404476</v>
+        <v>0.02462082863159878</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2168048377.903583</v>
+        <v>2226705290.463954</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1533674208455673</v>
+        <v>0.1607515589337291</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04387476608594822</v>
+        <v>0.0450995526342117</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5106254721.724033</v>
+        <v>4368381266.993374</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1717041148601824</v>
+        <v>0.1608361920313214</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04630095699392333</v>
+        <v>0.03876213918693952</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>230</v>
+      </c>
+      <c r="J46" t="n">
+        <v>384</v>
+      </c>
+      <c r="K46" t="n">
+        <v>55.32972784971981</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5157061914.885536</v>
+        <v>4665746688.61749</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1224589053425146</v>
+        <v>0.1326713481268857</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04837936853577573</v>
+        <v>0.04894731791565689</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>172</v>
+      </c>
+      <c r="J47" t="n">
+        <v>383</v>
+      </c>
+      <c r="K47" t="n">
+        <v>47.95477561840949</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3763366771.10802</v>
+        <v>4161404658.447525</v>
       </c>
       <c r="F48" t="n">
-        <v>0.067392426192215</v>
+        <v>0.08145909218026962</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03416170367584373</v>
+        <v>0.03559855418675852</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>199</v>
+      </c>
+      <c r="J48" t="n">
+        <v>383</v>
+      </c>
+      <c r="K48" t="n">
+        <v>52.77420900840218</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1497483316.145225</v>
+        <v>1553127763.952168</v>
       </c>
       <c r="F49" t="n">
-        <v>0.138387400035798</v>
+        <v>0.1700429677828027</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0328969972336468</v>
+        <v>0.04319578870419801</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2598977375.01587</v>
+        <v>2943767449.934969</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1308129353512544</v>
+        <v>0.1636665824793257</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05171122328604767</v>
+        <v>0.04756665877339879</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>132</v>
+      </c>
+      <c r="J50" t="n">
+        <v>382</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1316697194.895431</v>
+        <v>1168039120.983069</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1407148120792545</v>
+        <v>0.1421113465227654</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03419952479228159</v>
+        <v>0.04229028095791168</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4444017090.252252</v>
+        <v>5064033253.104619</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1307747112508936</v>
+        <v>0.1017954890266099</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05687206559598533</v>
+        <v>0.05660814565905543</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>225</v>
+      </c>
+      <c r="J52" t="n">
+        <v>383</v>
+      </c>
+      <c r="K52" t="n">
+        <v>51.1438605527125</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3009172976.940572</v>
+        <v>2779656476.720489</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1485661935133809</v>
+        <v>0.1692002613410749</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03273219907314905</v>
+        <v>0.02936214509548289</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3547494713.413892</v>
+        <v>4039384884.625169</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1299111229938397</v>
+        <v>0.1641383196364442</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0494221104731222</v>
+        <v>0.03892551758801662</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>204</v>
+      </c>
+      <c r="J54" t="n">
+        <v>384</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4043854716.637101</v>
+        <v>3980460319.445601</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1358545079383666</v>
+        <v>0.1536894746450155</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02008200047592106</v>
+        <v>0.02038549737636757</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>185</v>
+      </c>
+      <c r="J55" t="n">
+        <v>384</v>
+      </c>
+      <c r="K55" t="n">
+        <v>56.40840067811956</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1798420265.142491</v>
+        <v>1302407632.546424</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1050665300006917</v>
+        <v>0.1012810895101049</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03706230037999933</v>
+        <v>0.05711161104324667</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3930420523.567019</v>
+        <v>3041527528.136961</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1823168529128232</v>
+        <v>0.1457456067130256</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02552531363089395</v>
+        <v>0.02021642204388767</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>163</v>
+      </c>
+      <c r="J57" t="n">
+        <v>383</v>
+      </c>
+      <c r="K57" t="n">
+        <v>32.22030741765319</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2485,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1874952675.87508</v>
+        <v>1891916781.012449</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1526939275303563</v>
+        <v>0.1464696044525328</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03782782990214665</v>
+        <v>0.03064248260939083</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4757430933.859679</v>
+        <v>3563458345.018876</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1100142922592117</v>
+        <v>0.0964398119029455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03050835332926207</v>
+        <v>0.03730882429422173</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>186</v>
+      </c>
+      <c r="J59" t="n">
+        <v>384</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2992512745.091752</v>
+        <v>2657097947.78488</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1885530954338768</v>
+        <v>0.1267491615346746</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02729096801435072</v>
+        <v>0.02721814263251404</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2665497627.10174</v>
+        <v>3396416861.467167</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1532058113039317</v>
+        <v>0.1789988607694292</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02393038097280354</v>
+        <v>0.02645780495918133</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1825924049.444054</v>
+        <v>1532995875.189515</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1180235569535379</v>
+        <v>0.1297481675671908</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03576851532803448</v>
+        <v>0.03695436314672342</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4296152982.221875</v>
+        <v>4670982878.662918</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08899985180533214</v>
+        <v>0.08618387196946133</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02922335971834724</v>
+        <v>0.03711928231330135</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>190</v>
+      </c>
+      <c r="J63" t="n">
+        <v>384</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4337600233.503679</v>
+        <v>3578213617.601692</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1816754576938783</v>
+        <v>0.1873129320990234</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02942338054934229</v>
+        <v>0.02332137679726745</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>190</v>
+      </c>
+      <c r="J64" t="n">
+        <v>384</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4347515137.947569</v>
+        <v>5799292504.728458</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1563024715364767</v>
+        <v>0.1557451605457796</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02151675296715719</v>
+        <v>0.02910146545418064</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>287</v>
+      </c>
+      <c r="J65" t="n">
+        <v>384</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5449279175.204174</v>
+        <v>5059549612.377575</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1015663377648213</v>
+        <v>0.1566522146313346</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03512430991162674</v>
+        <v>0.03489651339542377</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>190</v>
+      </c>
+      <c r="J66" t="n">
+        <v>383</v>
+      </c>
+      <c r="K66" t="n">
+        <v>51.31936090522499</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2288248205.586554</v>
+        <v>2396275589.729377</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09468109286812196</v>
+        <v>0.07714069450231228</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03956448922384551</v>
+        <v>0.03320693136652537</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5701999105.187377</v>
+        <v>5887096722.442338</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1393114456434069</v>
+        <v>0.1415775840548311</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03905974364287606</v>
+        <v>0.0469118846206419</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>208</v>
+      </c>
+      <c r="J68" t="n">
+        <v>384</v>
+      </c>
+      <c r="K68" t="n">
+        <v>52.85457682317443</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2152950300.309895</v>
+        <v>1867630151.392544</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1727229531122858</v>
+        <v>0.1336573061333411</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0371040235640539</v>
+        <v>0.03932971575282789</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3201510724.008092</v>
+        <v>2750098855.214676</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0639048210248756</v>
+        <v>0.09200858799481323</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03824673852476913</v>
+        <v>0.0365502570308391</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5344085862.8015</v>
+        <v>3637846187.788948</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1448293436832682</v>
+        <v>0.1517201768812402</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03200701234116116</v>
+        <v>0.02324694900287144</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>273</v>
+      </c>
+      <c r="J71" t="n">
+        <v>384</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2003731133.010391</v>
+        <v>1382863702.614579</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08235562373821836</v>
+        <v>0.07079915710863438</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05269734667605456</v>
+        <v>0.03429189507926664</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3231949216.778177</v>
+        <v>2953240328.455203</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1013581869019748</v>
+        <v>0.09323954475875808</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04245119001393022</v>
+        <v>0.05216168046602228</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3049,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2703645058.798035</v>
+        <v>3130276848.044339</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1743480518869414</v>
+        <v>0.1189281797218903</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03515805136842749</v>
+        <v>0.02513534897585826</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="n">
+        <v>41.38046690017544</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1718873996.29377</v>
+        <v>2244251138.11998</v>
       </c>
       <c r="F75" t="n">
-        <v>0.164160563611244</v>
+        <v>0.1221996231601998</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02859150817788018</v>
+        <v>0.02325846956119712</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4947903491.687361</v>
+        <v>3324296509.960528</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1031628322467661</v>
+        <v>0.1250662496545084</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03240411176123737</v>
+        <v>0.03346228578741677</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>181</v>
+      </c>
+      <c r="J76" t="n">
+        <v>382</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2261813571.583219</v>
+        <v>1568183547.241882</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1798106254081756</v>
+        <v>0.184726156860377</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02550214962369211</v>
+        <v>0.02459564740482441</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3806987864.546191</v>
+        <v>3710199988.260501</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09938503860774876</v>
+        <v>0.1341840722917083</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04320020748062816</v>
+        <v>0.04609927250945708</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>192</v>
+      </c>
+      <c r="J78" t="n">
+        <v>383</v>
+      </c>
+      <c r="K78" t="n">
+        <v>45.39285904137325</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1232538429.539994</v>
+        <v>1679341332.538044</v>
       </c>
       <c r="F79" t="n">
-        <v>0.159832696398595</v>
+        <v>0.1293147303563102</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02845986240998925</v>
+        <v>0.03646599697310274</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4868104538.288724</v>
+        <v>3631410090.768634</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07609730443814119</v>
+        <v>0.07381151140719322</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02384782053266844</v>
+        <v>0.0281753437955747</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>187</v>
+      </c>
+      <c r="J80" t="n">
+        <v>384</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3451249257.335375</v>
+        <v>4973771041.740809</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1288997693761785</v>
+        <v>0.1086336675688056</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02307650486513409</v>
+        <v>0.02191616015135573</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>178</v>
+      </c>
+      <c r="J81" t="n">
+        <v>384</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5171319678.092989</v>
+        <v>4446719891.106866</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1581545489437871</v>
+        <v>0.1600560959925367</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02072243734315653</v>
+        <v>0.01892151479645101</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>265</v>
+      </c>
+      <c r="J82" t="n">
+        <v>383</v>
+      </c>
+      <c r="K82" t="n">
+        <v>51.77862475894047</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1598238462.152215</v>
+        <v>2434077948.803249</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1242388343029254</v>
+        <v>0.1017704839931992</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04533225315462342</v>
+        <v>0.03591784707836496</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2012220229.674744</v>
+        <v>1645520733.616553</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09985310913255871</v>
+        <v>0.1036969468241149</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04664922970106157</v>
+        <v>0.05204470782434416</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3250362713.043146</v>
+        <v>2958138732.912374</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1231954831933639</v>
+        <v>0.1522372964815564</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05014435486768246</v>
+        <v>0.04423138990322195</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1985705360.349179</v>
+        <v>1754717606.584752</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1075366875503744</v>
+        <v>0.1180484843540625</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02012547449598831</v>
+        <v>0.02666993785883724</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1471725495.579115</v>
+        <v>1116624553.294467</v>
       </c>
       <c r="F87" t="n">
-        <v>0.127859333099099</v>
+        <v>0.1414387792566132</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03164099206586467</v>
+        <v>0.04344688559387963</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3141446100.310579</v>
+        <v>3411289824.557158</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1155694119054584</v>
+        <v>0.1174043646480656</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02489726322620981</v>
+        <v>0.02590969565365069</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>48</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3160092365.267404</v>
+        <v>3300697490.972734</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1548389716660905</v>
+        <v>0.1412301516153155</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02772757059015039</v>
+        <v>0.03428820606231605</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2023577366.224094</v>
+        <v>1855115776.448478</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1150131761989153</v>
+        <v>0.08435849698942215</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0470868370514507</v>
+        <v>0.05463098624995812</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1988069496.98766</v>
+        <v>1931495328.797699</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1897657536407356</v>
+        <v>0.1914587339488266</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04806396420628814</v>
+        <v>0.04351147104198082</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2325435562.826678</v>
+        <v>2938535449.809221</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0783028534949626</v>
+        <v>0.0850217050254546</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04656624129949349</v>
+        <v>0.0314962256573374</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4864992499.981459</v>
+        <v>3869606765.016473</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1349828717028632</v>
+        <v>0.09176763341316907</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04215873972259179</v>
+        <v>0.04597534943430184</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>182</v>
+      </c>
+      <c r="J93" t="n">
+        <v>383</v>
+      </c>
+      <c r="K93" t="n">
+        <v>50.75068394474196</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2032488368.775429</v>
+        <v>1561974602.838785</v>
       </c>
       <c r="F94" t="n">
-        <v>0.143648611497998</v>
+        <v>0.1505882464446024</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04231068939938168</v>
+        <v>0.04146470635985738</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2516257651.973214</v>
+        <v>2759178649.733843</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1012122447266093</v>
+        <v>0.08534631352715637</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04226180939101588</v>
+        <v>0.04818093690533712</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1823518613.268572</v>
+        <v>2225051895.524435</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1191170860578759</v>
+        <v>0.1245822511875564</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03257450843183807</v>
+        <v>0.03669287872550798</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4991687069.740968</v>
+        <v>5199076213.554516</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1186004053947747</v>
+        <v>0.1273809964569618</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0280681720752563</v>
+        <v>0.01884261834904872</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>199</v>
+      </c>
+      <c r="J97" t="n">
+        <v>383</v>
+      </c>
+      <c r="K97" t="n">
+        <v>51.56804256208652</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3001348265.795471</v>
+        <v>3084952399.909274</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1062313233903046</v>
+        <v>0.1172334710460828</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03256796572189086</v>
+        <v>0.02262254741333161</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>375</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2666114894.528876</v>
+        <v>3125933818.380016</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1367730872736895</v>
+        <v>0.1193153387831735</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0260793375055691</v>
+        <v>0.02201705003273855</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>348</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4216158331.606129</v>
+        <v>3578218028.974172</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1290514856945796</v>
+        <v>0.1507594561592382</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0224383542670764</v>
+        <v>0.02252053851471648</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>177</v>
+      </c>
+      <c r="J100" t="n">
+        <v>383</v>
+      </c>
+      <c r="K100" t="n">
+        <v>42.21423358755067</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3543096315.482744</v>
+        <v>2764797920.451771</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1515222498155499</v>
+        <v>0.1700412558711116</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05684148328681195</v>
+        <v>0.0492106975209585</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
